--- a/data/pca/factorExposure/factorExposure_2016-04-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01098619613507092</v>
+        <v>0.01491542198972012</v>
       </c>
       <c r="C2">
-        <v>0.05341871955068167</v>
+        <v>0.03875552723822042</v>
       </c>
       <c r="D2">
-        <v>-0.04285332363587275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06035237655923564</v>
+      </c>
+      <c r="E2">
+        <v>-0.09356217298385006</v>
+      </c>
+      <c r="F2">
+        <v>0.08779484624043472</v>
+      </c>
+      <c r="G2">
+        <v>0.02647987163227336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04047120960770542</v>
+        <v>0.02513399682179549</v>
       </c>
       <c r="C3">
-        <v>0.1203005355734283</v>
+        <v>0.0661734100182927</v>
       </c>
       <c r="D3">
-        <v>-0.0843450420756896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07184556005967088</v>
+      </c>
+      <c r="E3">
+        <v>-0.07244449962163822</v>
+      </c>
+      <c r="F3">
+        <v>-0.02350235018600882</v>
+      </c>
+      <c r="G3">
+        <v>0.04794704982282368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06367435683706597</v>
+        <v>0.06075373914827153</v>
       </c>
       <c r="C4">
-        <v>0.0596397424327262</v>
+        <v>0.06239893175225793</v>
       </c>
       <c r="D4">
-        <v>-0.02899910900201539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05214906117835254</v>
+      </c>
+      <c r="E4">
+        <v>-0.09052291375774732</v>
+      </c>
+      <c r="F4">
+        <v>0.04296504727455536</v>
+      </c>
+      <c r="G4">
+        <v>0.0883938763425885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04160940892647651</v>
+        <v>0.03749833693316103</v>
       </c>
       <c r="C6">
-        <v>0.03442685194920394</v>
+        <v>0.02585478575497594</v>
       </c>
       <c r="D6">
-        <v>-0.03099560062610318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06090738799728181</v>
+      </c>
+      <c r="E6">
+        <v>-0.08984611766128021</v>
+      </c>
+      <c r="F6">
+        <v>0.02640674831128689</v>
+      </c>
+      <c r="G6">
+        <v>0.06511946418183985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02751216173042071</v>
+        <v>0.0214800788422425</v>
       </c>
       <c r="C7">
-        <v>0.0411319014429769</v>
+        <v>0.03620676269190434</v>
       </c>
       <c r="D7">
-        <v>0.006018070738241304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03770650414213288</v>
+      </c>
+      <c r="E7">
+        <v>-0.06798840038027769</v>
+      </c>
+      <c r="F7">
+        <v>0.07006984495728877</v>
+      </c>
+      <c r="G7">
+        <v>0.09806632115449136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006989977099515319</v>
+        <v>0.005278793986046797</v>
       </c>
       <c r="C8">
-        <v>0.04151618671363604</v>
+        <v>0.03419847679942264</v>
       </c>
       <c r="D8">
-        <v>-0.02658675132171643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03233538302978983</v>
+      </c>
+      <c r="E8">
+        <v>-0.06268984318582328</v>
+      </c>
+      <c r="F8">
+        <v>0.019444983443716</v>
+      </c>
+      <c r="G8">
+        <v>0.03683960054871963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03764230584116537</v>
+        <v>0.03991055298949032</v>
       </c>
       <c r="C9">
-        <v>0.04714279386391043</v>
+        <v>0.05025283251427849</v>
       </c>
       <c r="D9">
-        <v>-0.01370220245133532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03809371671690049</v>
+      </c>
+      <c r="E9">
+        <v>-0.07378946231854777</v>
+      </c>
+      <c r="F9">
+        <v>0.05794931688611561</v>
+      </c>
+      <c r="G9">
+        <v>0.08132531654593225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0716495359240963</v>
+        <v>0.09738613365606474</v>
       </c>
       <c r="C10">
-        <v>-0.1886552052995927</v>
+        <v>-0.199894841137292</v>
       </c>
       <c r="D10">
-        <v>0.003797315347013496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01153788347854569</v>
+      </c>
+      <c r="E10">
+        <v>-0.03193675087951928</v>
+      </c>
+      <c r="F10">
+        <v>0.01854633793205766</v>
+      </c>
+      <c r="G10">
+        <v>0.03620899261643751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0425788701639007</v>
+        <v>0.03769933763693814</v>
       </c>
       <c r="C11">
-        <v>0.05148262847667651</v>
+        <v>0.04762463214193272</v>
       </c>
       <c r="D11">
-        <v>-0.01340152907640028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03129347167868148</v>
+      </c>
+      <c r="E11">
+        <v>-0.03004142774154952</v>
+      </c>
+      <c r="F11">
+        <v>0.04058133190141174</v>
+      </c>
+      <c r="G11">
+        <v>0.06836441961557467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04528777681541008</v>
+        <v>0.03990392670627108</v>
       </c>
       <c r="C12">
-        <v>0.04702812700292577</v>
+        <v>0.04544421334132317</v>
       </c>
       <c r="D12">
-        <v>-0.002467347312797136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02611791469111887</v>
+      </c>
+      <c r="E12">
+        <v>-0.03682888103638311</v>
+      </c>
+      <c r="F12">
+        <v>0.04176907503924444</v>
+      </c>
+      <c r="G12">
+        <v>0.06596996039953831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01497638319962955</v>
+        <v>0.01283065700911876</v>
       </c>
       <c r="C13">
-        <v>0.05372913194069193</v>
+        <v>0.04211578415463851</v>
       </c>
       <c r="D13">
-        <v>-0.01002477257746011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04407550615921099</v>
+      </c>
+      <c r="E13">
+        <v>-0.1046873936622053</v>
+      </c>
+      <c r="F13">
+        <v>0.0592744191564917</v>
+      </c>
+      <c r="G13">
+        <v>0.09528706914981029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009980180923116817</v>
+        <v>0.006478518904279129</v>
       </c>
       <c r="C14">
-        <v>0.03946556379937579</v>
+        <v>0.03143173935556175</v>
       </c>
       <c r="D14">
-        <v>0.007272185006022708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02512263714880896</v>
+      </c>
+      <c r="E14">
+        <v>-0.05208719168472485</v>
+      </c>
+      <c r="F14">
+        <v>0.07796721203838158</v>
+      </c>
+      <c r="G14">
+        <v>0.08343042553647309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.446152852393278e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005221163562019383</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00810960516496927</v>
+      </c>
+      <c r="E15">
+        <v>-0.005048453896230513</v>
+      </c>
+      <c r="F15">
+        <v>0.007003897818811056</v>
+      </c>
+      <c r="G15">
+        <v>0.00759815874620456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04028958255517744</v>
+        <v>0.03578858777926534</v>
       </c>
       <c r="C16">
-        <v>0.04797583881731884</v>
+        <v>0.04405787504732382</v>
       </c>
       <c r="D16">
-        <v>-0.004783614010740103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02496601832853571</v>
+      </c>
+      <c r="E16">
+        <v>-0.04333845763883289</v>
+      </c>
+      <c r="F16">
+        <v>0.05238907167869615</v>
+      </c>
+      <c r="G16">
+        <v>0.05660666877102417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02683722626648871</v>
+        <v>0.01885285679122093</v>
       </c>
       <c r="C19">
-        <v>0.06072788399940669</v>
+        <v>0.04448371544781379</v>
       </c>
       <c r="D19">
-        <v>-0.09158185677100082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09133525867174233</v>
+      </c>
+      <c r="E19">
+        <v>-0.1155131924222265</v>
+      </c>
+      <c r="F19">
+        <v>0.06125083500652499</v>
+      </c>
+      <c r="G19">
+        <v>0.04153631526564706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01907206684711971</v>
+        <v>0.01522160442503937</v>
       </c>
       <c r="C20">
-        <v>0.04766317604506427</v>
+        <v>0.03876219909915076</v>
       </c>
       <c r="D20">
-        <v>-0.01045650766841383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0327304418951626</v>
+      </c>
+      <c r="E20">
+        <v>-0.08170435229727657</v>
+      </c>
+      <c r="F20">
+        <v>0.05189726336097718</v>
+      </c>
+      <c r="G20">
+        <v>0.06760519676563732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01265433525321576</v>
+        <v>0.01099443306953918</v>
       </c>
       <c r="C21">
-        <v>0.05582287375053318</v>
+        <v>0.04422041773424038</v>
       </c>
       <c r="D21">
-        <v>-0.03049377500061857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05565201280825915</v>
+      </c>
+      <c r="E21">
+        <v>-0.1285383482352391</v>
+      </c>
+      <c r="F21">
+        <v>0.08896396052734638</v>
+      </c>
+      <c r="G21">
+        <v>0.09529465167287839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001683420895147478</v>
+        <v>0.004184596951473322</v>
       </c>
       <c r="C22">
-        <v>0.001141037022622395</v>
+        <v>0.0279225564339388</v>
       </c>
       <c r="D22">
-        <v>-0.006361990793383931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04497829357905601</v>
+      </c>
+      <c r="E22">
+        <v>-0.05013134086410445</v>
+      </c>
+      <c r="F22">
+        <v>-0.01109606547189809</v>
+      </c>
+      <c r="G22">
+        <v>0.05616444887529867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.00168917321331525</v>
+        <v>0.004273302770484195</v>
       </c>
       <c r="C23">
-        <v>0.001160157727883025</v>
+        <v>0.02805938769595192</v>
       </c>
       <c r="D23">
-        <v>-0.006351229052251503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04451846265760888</v>
+      </c>
+      <c r="E23">
+        <v>-0.050392263101714</v>
+      </c>
+      <c r="F23">
+        <v>-0.01138798474675724</v>
+      </c>
+      <c r="G23">
+        <v>0.05614027486647566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03726821484245861</v>
+        <v>0.03619708278176719</v>
       </c>
       <c r="C24">
-        <v>0.05024751654748924</v>
+        <v>0.0522369106275307</v>
       </c>
       <c r="D24">
-        <v>-0.006716195557747013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02408423892693715</v>
+      </c>
+      <c r="E24">
+        <v>-0.04474493925982226</v>
+      </c>
+      <c r="F24">
+        <v>0.0545964779324497</v>
+      </c>
+      <c r="G24">
+        <v>0.06876253332799394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04901579746795283</v>
+        <v>0.04408029760260395</v>
       </c>
       <c r="C25">
-        <v>0.06118951265954198</v>
+        <v>0.05597964793038693</v>
       </c>
       <c r="D25">
-        <v>0.004049041822678915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02228890321228214</v>
+      </c>
+      <c r="E25">
+        <v>-0.03730946613610252</v>
+      </c>
+      <c r="F25">
+        <v>0.04443686207306412</v>
+      </c>
+      <c r="G25">
+        <v>0.07862313473700258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01669504351081269</v>
+        <v>0.01581523796464236</v>
       </c>
       <c r="C26">
-        <v>0.01840055910624258</v>
+        <v>0.01702162142003684</v>
       </c>
       <c r="D26">
-        <v>-0.0009082107960849005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0240818838863134</v>
+      </c>
+      <c r="E26">
+        <v>-0.05434546213749196</v>
+      </c>
+      <c r="F26">
+        <v>0.0594730934067914</v>
+      </c>
+      <c r="G26">
+        <v>0.0499166148135273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08555452630404382</v>
+        <v>0.1325725710409732</v>
       </c>
       <c r="C28">
-        <v>-0.248953285824513</v>
+        <v>-0.2555835155522094</v>
       </c>
       <c r="D28">
-        <v>0.004705748337126623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02845487776425151</v>
+      </c>
+      <c r="E28">
+        <v>-0.05627467533445418</v>
+      </c>
+      <c r="F28">
+        <v>0.03308503924115209</v>
+      </c>
+      <c r="G28">
+        <v>0.05136539721005157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008066559746168305</v>
+        <v>0.00651106894793269</v>
       </c>
       <c r="C29">
-        <v>0.03333310738026745</v>
+        <v>0.02859955228219394</v>
       </c>
       <c r="D29">
-        <v>0.0138286460598679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01626789280975099</v>
+      </c>
+      <c r="E29">
+        <v>-0.05186449270557616</v>
+      </c>
+      <c r="F29">
+        <v>0.0671018342413081</v>
+      </c>
+      <c r="G29">
+        <v>0.08677326960123218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04714438569158469</v>
+        <v>0.04382147311766481</v>
       </c>
       <c r="C30">
-        <v>0.05377007264078036</v>
+        <v>0.05700790347668341</v>
       </c>
       <c r="D30">
-        <v>-0.08011866006830412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1009247624887724</v>
+      </c>
+      <c r="E30">
+        <v>-0.08203137050453595</v>
+      </c>
+      <c r="F30">
+        <v>0.06843045971467909</v>
+      </c>
+      <c r="G30">
+        <v>0.06577251214906032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06078100148972086</v>
+        <v>0.05882213368293822</v>
       </c>
       <c r="C31">
-        <v>0.04486542322520894</v>
+        <v>0.06112039395522281</v>
       </c>
       <c r="D31">
-        <v>0.04339207566648753</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0190599738677636</v>
+      </c>
+      <c r="E31">
+        <v>-0.07199610111300517</v>
+      </c>
+      <c r="F31">
+        <v>0.02444390159864376</v>
+      </c>
+      <c r="G31">
+        <v>0.08295203057518628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001667957184432756</v>
+        <v>0.006337130682617762</v>
       </c>
       <c r="C32">
-        <v>0.04371704889190203</v>
+        <v>0.0343239546378899</v>
       </c>
       <c r="D32">
-        <v>-0.05908134415872936</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0533147836237545</v>
+      </c>
+      <c r="E32">
+        <v>-0.05898127858245709</v>
+      </c>
+      <c r="F32">
+        <v>0.06870396756219083</v>
+      </c>
+      <c r="G32">
+        <v>0.06543442066064435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03454032355106697</v>
+        <v>0.0282693889254613</v>
       </c>
       <c r="C33">
-        <v>0.05653401682826355</v>
+        <v>0.05159176118913531</v>
       </c>
       <c r="D33">
-        <v>-0.04008003239865679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07052089347050598</v>
+      </c>
+      <c r="E33">
+        <v>-0.09286516552363609</v>
+      </c>
+      <c r="F33">
+        <v>0.06854177067086135</v>
+      </c>
+      <c r="G33">
+        <v>0.09900977478777101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04631904819642372</v>
+        <v>0.04171132475367399</v>
       </c>
       <c r="C34">
-        <v>0.0647542203381502</v>
+        <v>0.06275724941251884</v>
       </c>
       <c r="D34">
-        <v>-0.01898335558805391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0377065815722661</v>
+      </c>
+      <c r="E34">
+        <v>-0.01941633011869448</v>
+      </c>
+      <c r="F34">
+        <v>0.05463417707715516</v>
+      </c>
+      <c r="G34">
+        <v>0.07034972882170769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01745812226142062</v>
+        <v>0.01483450969639782</v>
       </c>
       <c r="C36">
-        <v>0.01710864956450176</v>
+        <v>0.01370487145429583</v>
       </c>
       <c r="D36">
-        <v>0.003193655039977329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02315866128489003</v>
+      </c>
+      <c r="E36">
+        <v>-0.06245420622759637</v>
+      </c>
+      <c r="F36">
+        <v>0.05013041782445224</v>
+      </c>
+      <c r="G36">
+        <v>0.0661174987843204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03037963106459107</v>
+        <v>0.02367280826937369</v>
       </c>
       <c r="C38">
-        <v>0.03155295903141011</v>
+        <v>0.02413918657403005</v>
       </c>
       <c r="D38">
-        <v>0.0138807647090276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02047175046366956</v>
+      </c>
+      <c r="E38">
+        <v>-0.05184480349679667</v>
+      </c>
+      <c r="F38">
+        <v>0.04127097097334147</v>
+      </c>
+      <c r="G38">
+        <v>0.04579495279742656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04788227695777479</v>
+        <v>0.04191222772706906</v>
       </c>
       <c r="C39">
-        <v>0.06159535979113295</v>
+        <v>0.06217195064125679</v>
       </c>
       <c r="D39">
-        <v>-0.02003876515359502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05033227855715604</v>
+      </c>
+      <c r="E39">
+        <v>-0.05172081097421211</v>
+      </c>
+      <c r="F39">
+        <v>0.0741606493093246</v>
+      </c>
+      <c r="G39">
+        <v>0.06342733823908836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01162390072686379</v>
+        <v>0.01403000446597435</v>
       </c>
       <c r="C40">
-        <v>0.05460325186077072</v>
+        <v>0.03889349873729137</v>
       </c>
       <c r="D40">
-        <v>-0.01927904446204712</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03041131776709622</v>
+      </c>
+      <c r="E40">
+        <v>-0.09218679362996282</v>
+      </c>
+      <c r="F40">
+        <v>0.036249373452939</v>
+      </c>
+      <c r="G40">
+        <v>0.1010252738928945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02277070428025111</v>
+        <v>0.01956123317033925</v>
       </c>
       <c r="C41">
-        <v>0.01305891540733081</v>
+        <v>0.009393254076882712</v>
       </c>
       <c r="D41">
-        <v>-0.001217348897343601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01491799046437007</v>
+      </c>
+      <c r="E41">
+        <v>-0.06283058729190936</v>
+      </c>
+      <c r="F41">
+        <v>0.04621126943465442</v>
+      </c>
+      <c r="G41">
+        <v>0.05290013078483747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04335682614274967</v>
+        <v>0.03103847519690008</v>
       </c>
       <c r="C43">
-        <v>0.03349759631807229</v>
+        <v>0.02449684575059277</v>
       </c>
       <c r="D43">
-        <v>-0.0214919188651424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04288734904398792</v>
+      </c>
+      <c r="E43">
+        <v>-0.07992257017109386</v>
+      </c>
+      <c r="F43">
+        <v>0.03815292490823804</v>
+      </c>
+      <c r="G43">
+        <v>0.08162028780265075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01543936050226218</v>
+        <v>0.01636231820218472</v>
       </c>
       <c r="C44">
-        <v>0.06844480358310487</v>
+        <v>0.04747950756257231</v>
       </c>
       <c r="D44">
-        <v>-0.007978625678683446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03156804076355974</v>
+      </c>
+      <c r="E44">
+        <v>-0.08981446870002582</v>
+      </c>
+      <c r="F44">
+        <v>0.0618317144006627</v>
+      </c>
+      <c r="G44">
+        <v>0.04980452388475215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01103728833115259</v>
+        <v>0.01174083357120622</v>
       </c>
       <c r="C46">
-        <v>0.02810966311607847</v>
+        <v>0.02890476023221595</v>
       </c>
       <c r="D46">
-        <v>0.01553338422467628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0119151810924743</v>
+      </c>
+      <c r="E46">
+        <v>-0.0618925287979159</v>
+      </c>
+      <c r="F46">
+        <v>0.08008319175264669</v>
+      </c>
+      <c r="G46">
+        <v>0.08503928330591298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08969824154571455</v>
+        <v>0.09244770510805241</v>
       </c>
       <c r="C47">
-        <v>0.06738787292964379</v>
+        <v>0.078572433827755</v>
       </c>
       <c r="D47">
-        <v>0.04349769291154251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02554177676912564</v>
+      </c>
+      <c r="E47">
+        <v>-0.06825110825143586</v>
+      </c>
+      <c r="F47">
+        <v>0.02371017636166973</v>
+      </c>
+      <c r="G47">
+        <v>0.07850215620275586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0190568303663328</v>
+        <v>0.01750389538650915</v>
       </c>
       <c r="C48">
-        <v>0.01449544036441827</v>
+        <v>0.01594647627647431</v>
       </c>
       <c r="D48">
-        <v>0.01656215841027137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01020760082962589</v>
+      </c>
+      <c r="E48">
+        <v>-0.07427517909183072</v>
+      </c>
+      <c r="F48">
+        <v>0.06292410642212654</v>
+      </c>
+      <c r="G48">
+        <v>0.07389031155834434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08468245982485779</v>
+        <v>0.07236221800462546</v>
       </c>
       <c r="C50">
-        <v>0.08042384986815984</v>
+        <v>0.07416213344407059</v>
       </c>
       <c r="D50">
-        <v>0.04358132410325081</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01019586697273391</v>
+      </c>
+      <c r="E50">
+        <v>-0.07837827363008955</v>
+      </c>
+      <c r="F50">
+        <v>-0.002894475524108083</v>
+      </c>
+      <c r="G50">
+        <v>0.09231403437742076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01773790334503719</v>
+        <v>0.01129971339811164</v>
       </c>
       <c r="C51">
-        <v>0.05113008425344224</v>
+        <v>0.03257477537111112</v>
       </c>
       <c r="D51">
-        <v>-0.04042108795977444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05571928405743587</v>
+      </c>
+      <c r="E51">
+        <v>-0.05369106860018961</v>
+      </c>
+      <c r="F51">
+        <v>0.07051813702192446</v>
+      </c>
+      <c r="G51">
+        <v>0.06079036632608763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08487805805925736</v>
+        <v>0.09743816001192487</v>
       </c>
       <c r="C53">
-        <v>0.07661617034889683</v>
+        <v>0.08513953778299382</v>
       </c>
       <c r="D53">
-        <v>0.06570926080020366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06244607197516797</v>
+      </c>
+      <c r="E53">
+        <v>-0.06554748676982011</v>
+      </c>
+      <c r="F53">
+        <v>0.02268766299280693</v>
+      </c>
+      <c r="G53">
+        <v>0.06977838286955727</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03669146416269112</v>
+        <v>0.02990495027621061</v>
       </c>
       <c r="C54">
-        <v>0.03649527738952803</v>
+        <v>0.03192466640471209</v>
       </c>
       <c r="D54">
-        <v>0.00484722924466012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02393895117930358</v>
+      </c>
+      <c r="E54">
+        <v>-0.05790538187475042</v>
+      </c>
+      <c r="F54">
+        <v>0.070785067218196</v>
+      </c>
+      <c r="G54">
+        <v>0.08696096058971482</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07970805478250154</v>
+        <v>0.08981167548051233</v>
       </c>
       <c r="C55">
-        <v>0.05399377707459473</v>
+        <v>0.06731726615449567</v>
       </c>
       <c r="D55">
-        <v>0.07002143115847952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0628699693970563</v>
+      </c>
+      <c r="E55">
+        <v>-0.04347382575674284</v>
+      </c>
+      <c r="F55">
+        <v>0.003435337480031241</v>
+      </c>
+      <c r="G55">
+        <v>0.05350899861390908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1532289904586699</v>
+        <v>0.155496936542864</v>
       </c>
       <c r="C56">
-        <v>0.08139320045898603</v>
+        <v>0.09985295697528981</v>
       </c>
       <c r="D56">
-        <v>0.06142983370195256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05733751593988979</v>
+      </c>
+      <c r="E56">
+        <v>-0.04003714065851687</v>
+      </c>
+      <c r="F56">
+        <v>-0.0171347590077266</v>
+      </c>
+      <c r="G56">
+        <v>0.02327448665567579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05039567496479788</v>
+        <v>0.03126846826054054</v>
       </c>
       <c r="C58">
-        <v>0.01771462558124587</v>
+        <v>0.02012891786604953</v>
       </c>
       <c r="D58">
-        <v>-0.5848031644322217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3712742175897514</v>
+      </c>
+      <c r="E58">
+        <v>-0.6265749002727384</v>
+      </c>
+      <c r="F58">
+        <v>-0.4185229211588707</v>
+      </c>
+      <c r="G58">
+        <v>-0.463120869655233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1254582365296355</v>
+        <v>0.1402677855842776</v>
       </c>
       <c r="C59">
-        <v>-0.2006608109397616</v>
+        <v>-0.1907697020858728</v>
       </c>
       <c r="D59">
-        <v>-0.02868101485546242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03021263820993461</v>
+      </c>
+      <c r="E59">
+        <v>-0.02913270149876379</v>
+      </c>
+      <c r="F59">
+        <v>0.03517820182965495</v>
+      </c>
+      <c r="G59">
+        <v>-0.01191534264881839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3066480827567148</v>
+        <v>0.2769504572196346</v>
       </c>
       <c r="C60">
-        <v>0.1133757205697093</v>
+        <v>0.1075363165523455</v>
       </c>
       <c r="D60">
-        <v>-0.1801496020880297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2577707841665816</v>
+      </c>
+      <c r="E60">
+        <v>0.239494422586458</v>
+      </c>
+      <c r="F60">
+        <v>-0.08975010709554467</v>
+      </c>
+      <c r="G60">
+        <v>0.04041966434549445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0467218313570267</v>
+        <v>0.04328152666058829</v>
       </c>
       <c r="C61">
-        <v>0.06035399305261832</v>
+        <v>0.05753844563313717</v>
       </c>
       <c r="D61">
-        <v>-0.01383720119757701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0408953171518399</v>
+      </c>
+      <c r="E61">
+        <v>-0.05411792241534812</v>
+      </c>
+      <c r="F61">
+        <v>0.05611308536749633</v>
+      </c>
+      <c r="G61">
+        <v>0.07794478037309278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01921553542352553</v>
+        <v>0.01729636739081437</v>
       </c>
       <c r="C63">
-        <v>0.03363014075982199</v>
+        <v>0.03060889111739576</v>
       </c>
       <c r="D63">
-        <v>0.02252156094581994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01532385877392516</v>
+      </c>
+      <c r="E63">
+        <v>-0.06430495292539465</v>
+      </c>
+      <c r="F63">
+        <v>0.03445144964188013</v>
+      </c>
+      <c r="G63">
+        <v>0.07696009570696098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05058904839243055</v>
+        <v>0.05645130990809305</v>
       </c>
       <c r="C64">
-        <v>0.04834545284205549</v>
+        <v>0.05844481200233075</v>
       </c>
       <c r="D64">
-        <v>-0.01452580961085935</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.007549037847085123</v>
+      </c>
+      <c r="E64">
+        <v>-0.04461824911213195</v>
+      </c>
+      <c r="F64">
+        <v>0.0495490168913113</v>
+      </c>
+      <c r="G64">
+        <v>0.05331837602774137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08141249386535417</v>
+        <v>0.06615165355764559</v>
       </c>
       <c r="C65">
-        <v>0.02403052827748709</v>
+        <v>0.02478847266444602</v>
       </c>
       <c r="D65">
-        <v>-0.06196749257649988</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08753958209552777</v>
+      </c>
+      <c r="E65">
+        <v>-0.0563813387665392</v>
+      </c>
+      <c r="F65">
+        <v>0.004220859796696735</v>
+      </c>
+      <c r="G65">
+        <v>0.02023399536623521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06352848195396664</v>
+        <v>0.05441146786432473</v>
       </c>
       <c r="C66">
-        <v>0.08626253701525471</v>
+        <v>0.08073501700523072</v>
       </c>
       <c r="D66">
-        <v>-0.04007534372592079</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07509058732303558</v>
+      </c>
+      <c r="E66">
+        <v>-0.06301275629470665</v>
+      </c>
+      <c r="F66">
+        <v>0.06558965037962311</v>
+      </c>
+      <c r="G66">
+        <v>0.07514819084137288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05179098849935299</v>
+        <v>0.04497343419513352</v>
       </c>
       <c r="C67">
-        <v>0.03117709042732689</v>
+        <v>0.02845681883063628</v>
       </c>
       <c r="D67">
-        <v>0.02270830750389095</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003926473219304646</v>
+      </c>
+      <c r="E67">
+        <v>-0.02730375254850407</v>
+      </c>
+      <c r="F67">
+        <v>0.02763267821704985</v>
+      </c>
+      <c r="G67">
+        <v>0.03661348879887153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1208880473775762</v>
+        <v>0.1452138320855723</v>
       </c>
       <c r="C68">
-        <v>-0.2817074852211069</v>
+        <v>-0.245548817532454</v>
       </c>
       <c r="D68">
-        <v>0.00848605205466752</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01671087092720674</v>
+      </c>
+      <c r="E68">
+        <v>-0.04335150078063556</v>
+      </c>
+      <c r="F68">
+        <v>0.009660896468261949</v>
+      </c>
+      <c r="G68">
+        <v>0.03062613653788947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0925020615727839</v>
+        <v>0.08776025154899522</v>
       </c>
       <c r="C69">
-        <v>0.07193681582100672</v>
+        <v>0.08972634275440058</v>
       </c>
       <c r="D69">
-        <v>0.0523575514490411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01757808603995949</v>
+      </c>
+      <c r="E69">
+        <v>-0.06015000923854506</v>
+      </c>
+      <c r="F69">
+        <v>0.0544048459065124</v>
+      </c>
+      <c r="G69">
+        <v>0.07666973853890406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1120290962204621</v>
+        <v>0.1395965376952473</v>
       </c>
       <c r="C71">
-        <v>-0.2588744427594216</v>
+        <v>-0.2445424876198202</v>
       </c>
       <c r="D71">
-        <v>-0.01127649922664082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0008378869767534861</v>
+      </c>
+      <c r="E71">
+        <v>-0.05693138094690126</v>
+      </c>
+      <c r="F71">
+        <v>0.01063114373927236</v>
+      </c>
+      <c r="G71">
+        <v>0.06499472517224485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09727715712326257</v>
+        <v>0.1042997549445056</v>
       </c>
       <c r="C72">
-        <v>0.04210481016173965</v>
+        <v>0.04946022034926081</v>
       </c>
       <c r="D72">
-        <v>-0.005971558853644308</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03441888690453359</v>
+      </c>
+      <c r="E72">
+        <v>-0.02167001742793538</v>
+      </c>
+      <c r="F72">
+        <v>0.03111891652177249</v>
+      </c>
+      <c r="G72">
+        <v>0.09355944105177283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3959312285441867</v>
+        <v>0.3353449656759169</v>
       </c>
       <c r="C73">
-        <v>0.04934646624690752</v>
+        <v>0.07022405627033135</v>
       </c>
       <c r="D73">
-        <v>-0.4426808013054883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5150636267415006</v>
+      </c>
+      <c r="E73">
+        <v>0.4464561765217283</v>
+      </c>
+      <c r="F73">
+        <v>-0.237178388515302</v>
+      </c>
+      <c r="G73">
+        <v>0.01593240772944307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1089016519912532</v>
+        <v>0.1130667013590317</v>
       </c>
       <c r="C74">
-        <v>0.09162904504748032</v>
+        <v>0.09163249687022552</v>
       </c>
       <c r="D74">
-        <v>0.04716311560463193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04808249346067746</v>
+      </c>
+      <c r="E74">
+        <v>-0.05690421065759362</v>
+      </c>
+      <c r="F74">
+        <v>-0.008039618038959603</v>
+      </c>
+      <c r="G74">
+        <v>0.0454751147632308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.25869793340309</v>
+        <v>0.2620670861583724</v>
       </c>
       <c r="C75">
-        <v>0.08778434724897463</v>
+        <v>0.1208176232003831</v>
       </c>
       <c r="D75">
-        <v>0.137015295314111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.150983545064517</v>
+      </c>
+      <c r="E75">
+        <v>-0.02689956201610728</v>
+      </c>
+      <c r="F75">
+        <v>-0.06478063874054785</v>
+      </c>
+      <c r="G75">
+        <v>-0.05049231206046468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1171540709704124</v>
+        <v>0.130352789267956</v>
       </c>
       <c r="C76">
-        <v>0.08014786932539238</v>
+        <v>0.09143923472292224</v>
       </c>
       <c r="D76">
-        <v>0.076980173059639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08268588479586061</v>
+      </c>
+      <c r="E76">
+        <v>-0.07172880371472073</v>
+      </c>
+      <c r="F76">
+        <v>0.01249042206059383</v>
+      </c>
+      <c r="G76">
+        <v>0.03365518329209205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08064001710971111</v>
+        <v>0.06642695522096401</v>
       </c>
       <c r="C77">
-        <v>0.04562998999974412</v>
+        <v>0.05856283737071693</v>
       </c>
       <c r="D77">
-        <v>-0.05205144056859683</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05506015871382273</v>
+      </c>
+      <c r="E77">
+        <v>-0.09818843462394729</v>
+      </c>
+      <c r="F77">
+        <v>0.1847107961408039</v>
+      </c>
+      <c r="G77">
+        <v>-0.09633395820865506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04869155685893491</v>
+        <v>0.04696410175537545</v>
       </c>
       <c r="C78">
-        <v>0.04062534171812673</v>
+        <v>0.05213110474458393</v>
       </c>
       <c r="D78">
-        <v>-0.03193341447793528</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06188867547402139</v>
+      </c>
+      <c r="E78">
+        <v>-0.06360223592540713</v>
+      </c>
+      <c r="F78">
+        <v>0.05833794754516227</v>
+      </c>
+      <c r="G78">
+        <v>0.06651701331790814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0002141134035908551</v>
+        <v>0.03259093205422822</v>
       </c>
       <c r="C79">
-        <v>0.0002238852068436159</v>
+        <v>0.04741646983244709</v>
       </c>
       <c r="D79">
-        <v>-0.001476983426244608</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08306126218173215</v>
+      </c>
+      <c r="E79">
+        <v>-0.06655719853514687</v>
+      </c>
+      <c r="F79">
+        <v>-0.02387188888516935</v>
+      </c>
+      <c r="G79">
+        <v>0.03118788774435305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03949328472568139</v>
+        <v>0.03057707830183344</v>
       </c>
       <c r="C80">
-        <v>0.04895986007699653</v>
+        <v>0.04927676347645656</v>
       </c>
       <c r="D80">
-        <v>-0.02951810261419536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03883494973647611</v>
+      </c>
+      <c r="E80">
+        <v>-0.01687273084916128</v>
+      </c>
+      <c r="F80">
+        <v>0.05513780372402916</v>
+      </c>
+      <c r="G80">
+        <v>0.002717808150590533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1434398757778292</v>
+        <v>0.1427876688593814</v>
       </c>
       <c r="C81">
-        <v>0.07048833993179443</v>
+        <v>0.09086320758773422</v>
       </c>
       <c r="D81">
-        <v>0.1126109805085699</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1278526195235008</v>
+      </c>
+      <c r="E81">
+        <v>-0.07018492297259159</v>
+      </c>
+      <c r="F81">
+        <v>-0.02764117559169006</v>
+      </c>
+      <c r="G81">
+        <v>-0.01480585717961948</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1891666155248278</v>
+        <v>0.2242214385503681</v>
       </c>
       <c r="C82">
-        <v>0.08388597979782909</v>
+        <v>0.148949320843723</v>
       </c>
       <c r="D82">
-        <v>0.1997782595900761</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2533422646991982</v>
+      </c>
+      <c r="E82">
+        <v>0.03266817525847169</v>
+      </c>
+      <c r="F82">
+        <v>0.04193236583958391</v>
+      </c>
+      <c r="G82">
+        <v>0.06146599696975755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04104377488735679</v>
+        <v>0.0278562236822713</v>
       </c>
       <c r="C83">
-        <v>0.03006080971094231</v>
+        <v>0.04387910505940103</v>
       </c>
       <c r="D83">
-        <v>-0.03696336586546554</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03089794139278885</v>
+      </c>
+      <c r="E83">
+        <v>-0.02570218701764321</v>
+      </c>
+      <c r="F83">
+        <v>0.04106707069485901</v>
+      </c>
+      <c r="G83">
+        <v>0.005741049044133099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002632902332524165</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0003404636767423068</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0002737988284305543</v>
+      </c>
+      <c r="E84">
+        <v>-0.002744692751355622</v>
+      </c>
+      <c r="F84">
+        <v>-0.001924348379366046</v>
+      </c>
+      <c r="G84">
+        <v>0.001074047353282786</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2200036301346772</v>
+        <v>0.2036104721285618</v>
       </c>
       <c r="C85">
-        <v>0.09035961808394762</v>
+        <v>0.1092945236620757</v>
       </c>
       <c r="D85">
-        <v>0.168620840616522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1313419342217471</v>
+      </c>
+      <c r="E85">
+        <v>0.008579986813599474</v>
+      </c>
+      <c r="F85">
+        <v>-0.1050028135851201</v>
+      </c>
+      <c r="G85">
+        <v>-0.003233912950988209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009723004615055935</v>
+        <v>0.01229926612104375</v>
       </c>
       <c r="C86">
-        <v>0.02931959667418678</v>
+        <v>0.01878088528004194</v>
       </c>
       <c r="D86">
-        <v>-0.04455918314182959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06231274270439931</v>
+      </c>
+      <c r="E86">
+        <v>-0.08194532309165832</v>
+      </c>
+      <c r="F86">
+        <v>0.08331760291845836</v>
+      </c>
+      <c r="G86">
+        <v>0.07708222320167975</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02533219647604403</v>
+        <v>0.0258293489139792</v>
       </c>
       <c r="C87">
-        <v>0.00398077163154357</v>
+        <v>0.01222665510118796</v>
       </c>
       <c r="D87">
-        <v>-0.08499379418917694</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08111855110371104</v>
+      </c>
+      <c r="E87">
+        <v>-0.1327227156900262</v>
+      </c>
+      <c r="F87">
+        <v>0.07902182782184289</v>
+      </c>
+      <c r="G87">
+        <v>0.007598139674462085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1106267316021549</v>
+        <v>0.09425526571438173</v>
       </c>
       <c r="C88">
-        <v>0.07304135811423382</v>
+        <v>0.06201020573481204</v>
       </c>
       <c r="D88">
-        <v>0.02450198550858576</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00749075150839676</v>
+      </c>
+      <c r="E88">
+        <v>-0.0550482043688179</v>
+      </c>
+      <c r="F88">
+        <v>0.04684553388446058</v>
+      </c>
+      <c r="G88">
+        <v>0.03874794258549279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1768392605682205</v>
+        <v>0.2131956672302819</v>
       </c>
       <c r="C89">
-        <v>-0.3861702941764613</v>
+        <v>-0.3873567185448899</v>
       </c>
       <c r="D89">
-        <v>0.0237264217367394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01498648403566125</v>
+      </c>
+      <c r="E89">
+        <v>-0.06873865933228775</v>
+      </c>
+      <c r="F89">
+        <v>0.08961497601816609</v>
+      </c>
+      <c r="G89">
+        <v>0.0002103182491703724</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1698200732110668</v>
+        <v>0.1936920383024662</v>
       </c>
       <c r="C90">
-        <v>-0.3375396221530408</v>
+        <v>-0.3134829303514123</v>
       </c>
       <c r="D90">
-        <v>0.03704561692257836</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02280158685429524</v>
+      </c>
+      <c r="E90">
+        <v>-0.05703850959700129</v>
+      </c>
+      <c r="F90">
+        <v>0.03199547019004523</v>
+      </c>
+      <c r="G90">
+        <v>0.01285638037677709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1929276462364841</v>
+        <v>0.1898617723542356</v>
       </c>
       <c r="C91">
-        <v>0.1216378114084684</v>
+        <v>0.1384268394513765</v>
       </c>
       <c r="D91">
-        <v>0.1331938191730675</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.131150531894279</v>
+      </c>
+      <c r="E91">
+        <v>-0.0435754875922285</v>
+      </c>
+      <c r="F91">
+        <v>-0.02001993022688862</v>
+      </c>
+      <c r="G91">
+        <v>-0.006121429189216118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1572595212884203</v>
+        <v>0.1767448324134463</v>
       </c>
       <c r="C92">
-        <v>-0.2937067601395406</v>
+        <v>-0.2976392389262758</v>
       </c>
       <c r="D92">
-        <v>0.01467221805279611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01534558777083369</v>
+      </c>
+      <c r="E92">
+        <v>-0.0619678398695009</v>
+      </c>
+      <c r="F92">
+        <v>0.05592867845782826</v>
+      </c>
+      <c r="G92">
+        <v>0.03184936169154966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1885456206064422</v>
+        <v>0.2143172397106378</v>
       </c>
       <c r="C93">
-        <v>-0.3417900851125009</v>
+        <v>-0.3231477589196296</v>
       </c>
       <c r="D93">
-        <v>0.03665693780893262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01893781654158062</v>
+      </c>
+      <c r="E93">
+        <v>-0.03909286086057372</v>
+      </c>
+      <c r="F93">
+        <v>0.004245548545933807</v>
+      </c>
+      <c r="G93">
+        <v>0.04161990384996665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.340801024415628</v>
+        <v>0.3432544899576387</v>
       </c>
       <c r="C94">
-        <v>0.1224033231504697</v>
+        <v>0.1698778701387119</v>
       </c>
       <c r="D94">
-        <v>0.3778125002129867</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4061387693103546</v>
+      </c>
+      <c r="E94">
+        <v>0.01223917703971522</v>
+      </c>
+      <c r="F94">
+        <v>-0.1169007869029812</v>
+      </c>
+      <c r="G94">
+        <v>-0.400497164824065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1247318539527754</v>
+        <v>0.09183411008095929</v>
       </c>
       <c r="C95">
-        <v>0.05463482988933673</v>
+        <v>0.05783068932714968</v>
       </c>
       <c r="D95">
-        <v>-0.2162248512103784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2022583836523868</v>
+      </c>
+      <c r="E95">
+        <v>0.1189840052408559</v>
+      </c>
+      <c r="F95">
+        <v>0.7117751027216498</v>
+      </c>
+      <c r="G95">
+        <v>-0.5611008115727004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1919736188873183</v>
+        <v>0.1866775433831548</v>
       </c>
       <c r="C98">
-        <v>0.02892759580325093</v>
+        <v>0.04802302820757558</v>
       </c>
       <c r="D98">
-        <v>-0.1605489499635384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2031085167464146</v>
+      </c>
+      <c r="E98">
+        <v>0.1339327891325972</v>
+      </c>
+      <c r="F98">
+        <v>-0.08366358356528886</v>
+      </c>
+      <c r="G98">
+        <v>0.07935945645860737</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007844808437557782</v>
+        <v>0.006504110604894131</v>
       </c>
       <c r="C101">
-        <v>0.03336051038319456</v>
+        <v>0.02814971100132663</v>
       </c>
       <c r="D101">
-        <v>0.01359127905025815</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01616685970618618</v>
+      </c>
+      <c r="E101">
+        <v>-0.05254544429198964</v>
+      </c>
+      <c r="F101">
+        <v>0.06781982363483226</v>
+      </c>
+      <c r="G101">
+        <v>0.08663186662582995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1237928252333985</v>
+        <v>0.1270124145228985</v>
       </c>
       <c r="C102">
-        <v>0.0679669547833746</v>
+        <v>0.09827998076760354</v>
       </c>
       <c r="D102">
-        <v>0.04932280546597361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05948813508802287</v>
+      </c>
+      <c r="E102">
+        <v>0.0145966164960148</v>
+      </c>
+      <c r="F102">
+        <v>0.02186880440409255</v>
+      </c>
+      <c r="G102">
+        <v>-0.01321084021733103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
